--- a/datas/cases.xlsx
+++ b/datas/cases.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zombie/PycharmProjects/mallapitest/datas/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9086ED-5169-0D41-92A7-C82A67D72287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="4140" windowWidth="28120" windowHeight="12420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="11940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="register" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="add" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>case_id</t>
   </si>
@@ -84,30 +78,41 @@
     <t>{"code":500,"message":"密码不正确","data":None}</t>
   </si>
   <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>注册成功</t>
+  </si>
+  <si>
     <t>/admin/register</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>register</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"password": "labore aliqua Ut id amet", "username": "易杰","note": "nisi reprehenderit anim eu","email": "z.pjiaokymo@qq.com","icon":"http://dummyimage.com/100x100","nickName": "袁刚"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"password": "123456","username": "#phone#"}</t>
   </si>
   <si>
     <t>{"code": 200, "message": "操作成功"}</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>添加项目成功</t>
+  </si>
+  <si>
+    <t>{"logo":"aliquanullaesseinquis","name":"门即流","factoryStatus":50,"brandStory":"ametnisivoluptate","firstLetter":"autenisianim","showStatus":66,"bigPic":"http://dummyimage.com/400x400","sort":91560748}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,27 +124,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -162,9 +489,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -176,27 +745,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -483,27 +1096,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3365384615385" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.3365384615385" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="94.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6634615384615" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.3365384615385" style="1" customWidth="1"/>
+    <col min="7" max="7" width="94.3365384615385" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -557,7 +1170,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" ht="17" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -576,7 +1189,7 @@
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="2"/>
@@ -606,29 +1219,30 @@
       <c r="H4" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3365384615385" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.3365384615385" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="94.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6634615384615" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.3365384615385" style="1" customWidth="1"/>
+    <col min="7" max="7" width="94.3365384615385" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -658,47 +1272,111 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60">
+    <row r="2" ht="17" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H2" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="10.3365384615385" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.3365384615385" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="13.6634615384615" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.3365384615385" style="1" customWidth="1"/>
+    <col min="7" max="7" width="94.3365384615385" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="68" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/datas/cases.xlsx
+++ b/datas/cases.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11940" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="register" sheetId="2" r:id="rId2"/>
     <sheet name="add" sheetId="3" r:id="rId3"/>
+    <sheet name="category" sheetId="4" r:id="rId4"/>
+    <sheet name="get" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
   <si>
     <t>case_id</t>
   </si>
@@ -100,6 +102,27 @@
   </si>
   <si>
     <t>{"logo":"aliquanullaesseinquis","name":"门即流","factoryStatus":50,"brandStory":"ametnisivoluptate","firstLetter":"autenisianim","showStatus":66,"bigPic":"http://dummyimage.com/400x400","sort":91560748}</t>
+  </si>
+  <si>
+    <t>ceeate</t>
+  </si>
+  <si>
+    <t>增加商品成功</t>
+  </si>
+  <si>
+    <t>/productAttribute/category/create</t>
+  </si>
+  <si>
+    <t>{"name":"四等原全无石做","navStatus":91,"showStatus":53,"icon":"http://dummyimage.com/100x100","parentId":26,"productUnit":"sintesseLoremut","productAttributeIdList":[34,75],"keywords":"etmollitdoveniam","sort":61436671,"description":"问叫工反好本出厂七始究最维则。目别局阶入得育结技最示离。开都龙地容温持张快系使理文而住。包收眼建点其将实权飞来务年通感原。干过切置表物形其收集一队先共性济完候。"}</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/product/updateInfo</t>
+  </si>
+  <si>
+    <t>{"id":"28"}</t>
   </si>
 </sst>
 </file>
@@ -107,12 +130,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,53 +147,75 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,73 +228,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -258,15 +236,53 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,13 +297,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,169 +477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,6 +507,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -509,7 +540,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,7 +549,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,17 +584,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,162 +603,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -745,10 +761,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -757,54 +773,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1108,15 +1124,15 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="10.3365384615385" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.3365384615385" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.3333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="13.6634615384615" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.3365384615385" style="1" customWidth="1"/>
-    <col min="7" max="7" width="94.3365384615385" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="94.3333333333333" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1170,7 +1186,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" spans="1:8">
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1231,18 +1247,18 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E32" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="10.3365384615385" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.3365384615385" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.3333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="13.6634615384615" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.3365384615385" style="1" customWidth="1"/>
-    <col min="7" max="7" width="94.3365384615385" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="94.3333333333333" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1272,7 +1288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="17" spans="1:8">
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1308,19 +1324,19 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="10.3365384615385" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.3365384615385" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.3333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="13.6634615384615" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.3365384615385" style="1" customWidth="1"/>
-    <col min="7" max="7" width="94.3365384615385" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="94.3333333333333" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1350,7 +1366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="68" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1379,4 +1395,158 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="13.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="94.3333333333333" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="108" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="13.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="94.3333333333333" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>